--- a/va_facility_data_2025-02-20/Hamlet VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Hamlet%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Hamlet VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Hamlet%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R5aacdfe5ecb641a298bce60a4ab0b0f3"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R882a9bfb001544fcb611b42d15ea9b87"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rc1afd255a08e4f0d94aa53ba7a90bc13"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Ra192892b64d84c4894eb394d58e623c0"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Ra1dcad7be89543399158beef5c443f20"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Ra631900fc2534d5dbc964a6926c123a0"/>
   </x:sheets>
 </x:workbook>
 </file>
